--- a/bases/UPDATE/SCN/sector externo.xlsx
+++ b/bases/UPDATE/SCN/sector externo.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="sector externo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="sector_externo" localSheetId="0">'sector externo'!$A$1:$V$28</definedName>
+    <definedName name="sector_externo" localSheetId="0">'sector externo'!$A$1:$V$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\sector externo.IQY" name="sector externo" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\sector externo.IQY" name="sector externo" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="https://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,501413,501414,501415,501416,501417,501418,501419,501420,501421,501422,501423,501424,501425,501426,501427,501428,501429,501430,501431,501432,501433,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="31">
   <si>
     <t>Cuentas nacionales &gt; Cuentas de bienes y servicios, base 2013 &gt; A precios corrientes &gt; Exportación de bienes FOB, por sector de actividad económica</t>
   </si>
@@ -141,7 +141,7 @@
   </si>
   <si>
     <r>
-      <t>2020</t>
+      <t>2021</t>
     </r>
     <r>
       <rPr>
@@ -186,7 +186,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -205,7 +205,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 13/02/2022 11:00:39</t>
+    <t>Fecha de consulta: 03/01/2023 19:26:00</t>
   </si>
 </sst>
 </file>
@@ -1037,11 +1037,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2345,27 +2343,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2020</v>
       </c>
       <c r="B21" s="1">
-        <v>8894424.977</v>
+        <v>8897892.1760000009</v>
       </c>
       <c r="C21" s="1">
         <v>366824.39299999998</v>
       </c>
       <c r="D21" s="1">
-        <v>459794.86700000003</v>
+        <v>463262.08799999999</v>
       </c>
       <c r="E21" s="1">
-        <v>3991.1990000000001</v>
+        <v>3991.1979999999999</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="1">
-        <v>8063814.5180000002</v>
+        <v>8063814.4970000004</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>24</v>
@@ -2413,35 +2411,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10054294.169</v>
+      </c>
+      <c r="C22" s="1">
+        <v>373294.636</v>
+      </c>
+      <c r="D22" s="1">
+        <v>669057.83799999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5184.5820000000003</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9006757.1129999999</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2467,7 +2507,7 @@
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2493,7 +2533,7 @@
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2517,27 +2557,53 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+    <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A22:V22"/>
     <mergeCell ref="A23:V23"/>
     <mergeCell ref="A24:V24"/>
     <mergeCell ref="A25:V25"/>
+    <mergeCell ref="A26:V26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
